--- a/SimulationStudyData/Model2/SimCase9_zsim_SimRun2.xlsx
+++ b/SimulationStudyData/Model2/SimCase9_zsim_SimRun2.xlsx
@@ -353,7 +353,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -363,7 +363,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -378,7 +378,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -398,7 +398,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -408,7 +408,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -418,12 +418,12 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -433,7 +433,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -448,17 +448,17 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -478,12 +478,12 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -513,12 +513,12 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -533,7 +533,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -548,7 +548,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -568,12 +568,12 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -583,7 +583,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -603,22 +603,22 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -633,7 +633,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -668,7 +668,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -678,7 +678,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -698,7 +698,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -713,7 +713,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -728,7 +728,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -743,12 +743,12 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -758,7 +758,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -768,22 +768,22 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -798,7 +798,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -808,7 +808,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -833,7 +833,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -848,12 +848,12 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -863,12 +863,12 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -883,12 +883,12 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -898,7 +898,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -908,12 +908,12 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -923,12 +923,12 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -963,7 +963,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -973,12 +973,12 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -988,17 +988,17 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1008,7 +1008,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1033,7 +1033,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -1063,7 +1063,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1073,12 +1073,12 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1098,12 +1098,12 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -1113,22 +1113,22 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -1138,7 +1138,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -1148,7 +1148,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -1163,7 +1163,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -1173,7 +1173,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -1183,7 +1183,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -1198,12 +1198,12 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -1223,12 +1223,12 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -1238,7 +1238,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -1248,17 +1248,17 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -1273,12 +1273,12 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -1288,7 +1288,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -1298,7 +1298,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -1323,7 +1323,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -1333,17 +1333,17 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
